--- a/biology/Zoologie/Coucou_plaintif/Coucou_plaintif.xlsx
+++ b/biology/Zoologie/Coucou_plaintif/Coucou_plaintif.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cacomantis merulinus
 Le coucou plaintif (Cacomantis merulinus) est une espèce de coucou. On le trouve dans le Sud de l'Asie depuis l'Inde jusqu'en Chine et en Indonésie.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un assez petit coucou, de 21 à 23,5 cm de long. Le mâle adulte est gris-brun au-dessus et orange au-dessous avec une tête, la gorge et le poitrail gris. Il a des rayures blanches sur les plumes de la queue. Les jambes et les pieds sont de couleur jaune, l'œil est rouge et le bec est noir au-dessus et jaune en dessous. La femelle adulte est parfois similaire au mâle, mais se présente souvent sous une forme brune. Cette présentation est brun rougeâtre sur le dos avec des bandes foncées. Le dessous est pâle avec de légères rayures. Elle porte une bande pâle au-dessus de l'œil et la queue a des bandes foncées sur toute sa longueur. Les jeunes ressemblent à cette présentation mais les femelles sont plus pâles et ont des traînées sombres plutôt que des barres sur le sommet de la tête et la gorge.
 Le mâle a plusieurs appels plaintifs.
@@ -544,7 +558,9 @@
           <t>Distribution et sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il en existe quatre sous-espèces:
 Cacomantis m. merulinus se trouve aux Philippines, où il est courant sur bon nombre d'îles.
@@ -580,7 +596,9 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite en bordure de forêts, dans les bois, les taillis, les prairies, les terres agricoles, les parcs et jardins. Il se nourrit d'invertébrés. Il est généralement solitaire et est souvent difficile à voir.
 La femelle pond ses œufs dans les nids de cisticoles, prinias et couturières. Les œufs sont similaires à ceux des espèces hôtes mais sont plus gros. Ces oiseaux tiennent souvent le coucou à l'écart de leur nid.
